--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="H2">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="I2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="J2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.404023666666667</v>
+        <v>2.846571</v>
       </c>
       <c r="N2">
-        <v>4.212071</v>
+        <v>8.539712999999999</v>
       </c>
       <c r="O2">
-        <v>0.004814659541656092</v>
+        <v>0.01041928469143245</v>
       </c>
       <c r="P2">
-        <v>0.004814659541656092</v>
+        <v>0.01041928469143244</v>
       </c>
       <c r="Q2">
-        <v>65.05818801337877</v>
+        <v>158.977022230026</v>
       </c>
       <c r="R2">
-        <v>585.5236921204089</v>
+        <v>1430.793200070234</v>
       </c>
       <c r="S2">
-        <v>0.0009597979520451814</v>
+        <v>0.002420790757126427</v>
       </c>
       <c r="T2">
-        <v>0.0009597979520451811</v>
+        <v>0.002420790757126426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="H3">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="I3">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="J3">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>64.220574</v>
       </c>
       <c r="O3">
-        <v>0.07340811666748523</v>
+        <v>0.07835537840126532</v>
       </c>
       <c r="P3">
-        <v>0.07340811666748523</v>
+        <v>0.0783553784012653</v>
       </c>
       <c r="Q3">
-        <v>991.9287157360607</v>
+        <v>1195.543178139948</v>
       </c>
       <c r="R3">
-        <v>8927.358441624545</v>
+        <v>10759.88860325953</v>
       </c>
       <c r="S3">
-        <v>0.01463384055120771</v>
+        <v>0.01820489423433243</v>
       </c>
       <c r="T3">
-        <v>0.01463384055120771</v>
+        <v>0.01820489423433243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="H4">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="I4">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="J4">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.296131666666668</v>
+        <v>7.347547</v>
       </c>
       <c r="N4">
-        <v>21.888395</v>
+        <v>22.042641</v>
       </c>
       <c r="O4">
-        <v>0.02501979901057877</v>
+        <v>0.02689417688042223</v>
       </c>
       <c r="P4">
-        <v>0.02501979901057877</v>
+        <v>0.02689417688042223</v>
       </c>
       <c r="Q4">
-        <v>338.0805587610228</v>
+        <v>410.350257469482</v>
       </c>
       <c r="R4">
-        <v>3042.725028849205</v>
+        <v>3693.152317225338</v>
       </c>
       <c r="S4">
-        <v>0.004987673924431946</v>
+        <v>0.006248526337531019</v>
       </c>
       <c r="T4">
-        <v>0.004987673924431944</v>
+        <v>0.006248526337531017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="H5">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="I5">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="J5">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.5073063333334</v>
+        <v>241.601176</v>
       </c>
       <c r="N5">
-        <v>784.521919</v>
+        <v>724.8035279999999</v>
       </c>
       <c r="O5">
-        <v>0.89675742478028</v>
+        <v>0.8843311600268801</v>
       </c>
       <c r="P5">
-        <v>0.8967574247802799</v>
+        <v>0.8843311600268799</v>
       </c>
       <c r="Q5">
-        <v>12117.45350610631</v>
+        <v>13493.08888756065</v>
       </c>
       <c r="R5">
-        <v>109057.0815549568</v>
+        <v>121437.7999880459</v>
       </c>
       <c r="S5">
-        <v>0.1787677679675285</v>
+        <v>0.2054633078787338</v>
       </c>
       <c r="T5">
-        <v>0.1787677679675284</v>
+        <v>0.2054633078787337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>253.528801</v>
       </c>
       <c r="I6">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="J6">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.404023666666667</v>
+        <v>2.846571</v>
       </c>
       <c r="N6">
-        <v>4.212071</v>
+        <v>8.539712999999999</v>
       </c>
       <c r="O6">
-        <v>0.004814659541656092</v>
+        <v>0.01041928469143245</v>
       </c>
       <c r="P6">
-        <v>0.004814659541656092</v>
+        <v>0.01041928469143244</v>
       </c>
       <c r="Q6">
-        <v>118.6534789285412</v>
+        <v>240.5625775304569</v>
       </c>
       <c r="R6">
-        <v>1067.881310356871</v>
+        <v>2165.063197774113</v>
       </c>
       <c r="S6">
-        <v>0.001750484751515529</v>
+        <v>0.00366311845590885</v>
       </c>
       <c r="T6">
-        <v>0.001750484751515529</v>
+        <v>0.003663118455908849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>253.528801</v>
       </c>
       <c r="I7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="J7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.220574</v>
       </c>
       <c r="O7">
-        <v>0.07340811666748523</v>
+        <v>0.07835537840126532</v>
       </c>
       <c r="P7">
-        <v>0.07340811666748523</v>
+        <v>0.0783553784012653</v>
       </c>
       <c r="Q7">
         <v>1809.085013972419</v>
@@ -883,10 +883,10 @@
         <v>16281.76512575177</v>
       </c>
       <c r="S7">
-        <v>0.02668927839074286</v>
+        <v>0.02754747962472042</v>
       </c>
       <c r="T7">
-        <v>0.02668927839074286</v>
+        <v>0.02754747962472041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>253.528801</v>
       </c>
       <c r="I8">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="J8">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.296131666666668</v>
+        <v>7.347547</v>
       </c>
       <c r="N8">
-        <v>21.888395</v>
+        <v>22.042641</v>
       </c>
       <c r="O8">
-        <v>0.02501979901057877</v>
+        <v>0.02689417688042223</v>
       </c>
       <c r="P8">
-        <v>0.02501979901057877</v>
+        <v>0.02689417688042223</v>
       </c>
       <c r="Q8">
-        <v>616.5931711293772</v>
+        <v>620.9382604003822</v>
       </c>
       <c r="R8">
-        <v>5549.338540164395</v>
+        <v>5588.444343603441</v>
       </c>
       <c r="S8">
-        <v>0.009096546967667153</v>
+        <v>0.009455212963722917</v>
       </c>
       <c r="T8">
-        <v>0.009096546967667152</v>
+        <v>0.009455212963722915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>253.528801</v>
       </c>
       <c r="I9">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="J9">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>261.5073063333334</v>
+        <v>241.601176</v>
       </c>
       <c r="N9">
-        <v>784.521919</v>
+        <v>724.8035279999999</v>
       </c>
       <c r="O9">
-        <v>0.89675742478028</v>
+        <v>0.8843311600268801</v>
       </c>
       <c r="P9">
-        <v>0.8967574247802799</v>
+        <v>0.8843311600268799</v>
       </c>
       <c r="Q9">
-        <v>22099.87794247657</v>
+        <v>20417.61882382332</v>
       </c>
       <c r="R9">
-        <v>198898.9014822891</v>
+        <v>183758.5694144099</v>
       </c>
       <c r="S9">
-        <v>0.3260376324233854</v>
+        <v>0.3109052002479061</v>
       </c>
       <c r="T9">
-        <v>0.3260376324233853</v>
+        <v>0.3109052002479061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="H10">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="I10">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="J10">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.404023666666667</v>
+        <v>2.846571</v>
       </c>
       <c r="N10">
-        <v>4.212071</v>
+        <v>8.539712999999999</v>
       </c>
       <c r="O10">
-        <v>0.004814659541656092</v>
+        <v>0.01041928469143245</v>
       </c>
       <c r="P10">
-        <v>0.004814659541656092</v>
+        <v>0.01041928469143244</v>
       </c>
       <c r="Q10">
-        <v>40.81052659513445</v>
+        <v>94.49474814343199</v>
       </c>
       <c r="R10">
-        <v>367.29473935621</v>
+        <v>850.452733290888</v>
       </c>
       <c r="S10">
-        <v>0.0006020742514353525</v>
+        <v>0.001438899846618246</v>
       </c>
       <c r="T10">
-        <v>0.0006020742514353524</v>
+        <v>0.001438899846618245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="H11">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="I11">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="J11">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>64.220574</v>
       </c>
       <c r="O11">
-        <v>0.07340811666748523</v>
+        <v>0.07835537840126532</v>
       </c>
       <c r="P11">
-        <v>0.07340811666748523</v>
+        <v>0.0783553784012653</v>
       </c>
       <c r="Q11">
-        <v>622.2296450325267</v>
+        <v>710.6218869131361</v>
       </c>
       <c r="R11">
-        <v>5600.06680529274</v>
+        <v>6395.596982218225</v>
       </c>
       <c r="S11">
-        <v>0.009179701391025618</v>
+        <v>0.01082085241955271</v>
       </c>
       <c r="T11">
-        <v>0.009179701391025617</v>
+        <v>0.0108208524195527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="H12">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="I12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="J12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.296131666666668</v>
+        <v>7.347547</v>
       </c>
       <c r="N12">
-        <v>21.888395</v>
+        <v>22.042641</v>
       </c>
       <c r="O12">
-        <v>0.02501979901057877</v>
+        <v>0.02689417688042223</v>
       </c>
       <c r="P12">
-        <v>0.02501979901057877</v>
+        <v>0.02689417688042223</v>
       </c>
       <c r="Q12">
-        <v>212.0754674534945</v>
+        <v>243.909111431624</v>
       </c>
       <c r="R12">
-        <v>1908.67920708145</v>
+        <v>2195.182002884616</v>
       </c>
       <c r="S12">
-        <v>0.003128731456508287</v>
+        <v>0.003714077130456381</v>
       </c>
       <c r="T12">
-        <v>0.003128731456508286</v>
+        <v>0.00371407713045638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="H13">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="I13">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="J13">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>261.5073063333334</v>
+        <v>241.601176</v>
       </c>
       <c r="N13">
-        <v>784.521919</v>
+        <v>724.8035279999999</v>
       </c>
       <c r="O13">
-        <v>0.89675742478028</v>
+        <v>0.8843311600268801</v>
       </c>
       <c r="P13">
-        <v>0.8967574247802799</v>
+        <v>0.8843311600268799</v>
       </c>
       <c r="Q13">
-        <v>7601.190160330967</v>
+        <v>8020.190705686592</v>
       </c>
       <c r="R13">
-        <v>68410.7114429787</v>
+        <v>72181.71635117933</v>
       </c>
       <c r="S13">
-        <v>0.1121397163334975</v>
+        <v>0.1221258472348618</v>
       </c>
       <c r="T13">
-        <v>0.1121397163334975</v>
+        <v>0.1221258472348618</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="H14">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="I14">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="J14">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.404023666666667</v>
+        <v>2.846571</v>
       </c>
       <c r="N14">
-        <v>4.212071</v>
+        <v>8.539712999999999</v>
       </c>
       <c r="O14">
-        <v>0.004814659541656092</v>
+        <v>0.01041928469143245</v>
       </c>
       <c r="P14">
-        <v>0.004814659541656092</v>
+        <v>0.01041928469143244</v>
       </c>
       <c r="Q14">
-        <v>101.8308946457438</v>
+        <v>190.215973663352</v>
       </c>
       <c r="R14">
-        <v>916.4780518116939</v>
+        <v>1711.943762970168</v>
       </c>
       <c r="S14">
-        <v>0.00150230258666003</v>
+        <v>0.002896475631778923</v>
       </c>
       <c r="T14">
-        <v>0.00150230258666003</v>
+        <v>0.002896475631778922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="H15">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="I15">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="J15">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>64.220574</v>
       </c>
       <c r="O15">
-        <v>0.07340811666748523</v>
+        <v>0.07835537840126532</v>
       </c>
       <c r="P15">
-        <v>0.07340811666748523</v>
+        <v>0.0783553784012653</v>
       </c>
       <c r="Q15">
-        <v>1552.59455623687</v>
+        <v>1430.46716120663</v>
       </c>
       <c r="R15">
-        <v>13973.35100613184</v>
+        <v>12874.20445085967</v>
       </c>
       <c r="S15">
-        <v>0.02290529633450905</v>
+        <v>0.02178215212265976</v>
       </c>
       <c r="T15">
-        <v>0.02290529633450905</v>
+        <v>0.02178215212265975</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="H16">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="I16">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="J16">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.296131666666668</v>
+        <v>7.347547</v>
       </c>
       <c r="N16">
-        <v>21.888395</v>
+        <v>22.042641</v>
       </c>
       <c r="O16">
-        <v>0.02501979901057877</v>
+        <v>0.02689417688042223</v>
       </c>
       <c r="P16">
-        <v>0.02501979901057877</v>
+        <v>0.02689417688042223</v>
       </c>
       <c r="Q16">
-        <v>529.1731419554478</v>
+        <v>490.9839967603974</v>
       </c>
       <c r="R16">
-        <v>4762.558277599031</v>
+        <v>4418.855970843577</v>
       </c>
       <c r="S16">
-        <v>0.007806846661971383</v>
+        <v>0.007476360448711919</v>
       </c>
       <c r="T16">
-        <v>0.007806846661971383</v>
+        <v>0.007476360448711916</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="H17">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="I17">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="J17">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>261.5073063333334</v>
+        <v>241.601176</v>
       </c>
       <c r="N17">
-        <v>784.521919</v>
+        <v>724.8035279999999</v>
       </c>
       <c r="O17">
-        <v>0.89675742478028</v>
+        <v>0.8843311600268801</v>
       </c>
       <c r="P17">
-        <v>0.8967574247802799</v>
+        <v>0.8843311600268799</v>
       </c>
       <c r="Q17">
-        <v>18966.5769833808</v>
+        <v>16144.47801619945</v>
       </c>
       <c r="R17">
-        <v>170699.1928504271</v>
+        <v>145300.302145795</v>
       </c>
       <c r="S17">
-        <v>0.2798123080558686</v>
+        <v>0.2458368046653784</v>
       </c>
       <c r="T17">
-        <v>0.2798123080558686</v>
+        <v>0.2458368046653783</v>
       </c>
     </row>
   </sheetData>
